--- a/School Data Base/Student.xlsx
+++ b/School Data Base/Student.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaydaelhakie/Documents/workspace/School Data Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaydaelhakie/Documents/workspace/summer2016 (trunk)/School Data Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
         <v>1106</v>
       </c>
       <c r="D4">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E4">
         <v>4</v>
